--- a/Relazione/schema_relazionale.xlsx
+++ b/Relazione/schema_relazionale.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="1460" yWindow="1500" windowWidth="37540" windowHeight="21600" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>FARMACO</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>idPermesso</t>
   </si>
+  <si>
+    <t>idSala</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -337,11 +340,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,18 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,12 +404,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,16 +438,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2282,7 +2342,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>828921</xdr:colOff>
+      <xdr:colOff>7056</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>115</xdr:rowOff>
     </xdr:to>
@@ -2299,8 +2359,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="195129" y="14966343"/>
-          <a:ext cx="3949481" cy="0"/>
+          <a:off x="195129" y="15042559"/>
+          <a:ext cx="3113927" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2330,13 +2390,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3234</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>356655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3234</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>7604</xdr:rowOff>
@@ -2354,8 +2414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4147845" y="14592823"/>
-          <a:ext cx="0" cy="381009"/>
+          <a:off x="3317329" y="14743941"/>
+          <a:ext cx="0" cy="388758"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2496,71 +2556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>437012</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>437012</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>357729</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="254" name="Connettore 1 253">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8679999A-239B-B045-B322-8AE63A8F9954}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913512" y="13620750"/>
-          <a:ext cx="0" cy="732379"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>608383</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>420</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596287</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>181848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>181848</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2575,8 +2580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="608383" y="13627520"/>
-          <a:ext cx="2312617" cy="0"/>
+          <a:off x="596287" y="14644608"/>
+          <a:ext cx="236833" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2609,13 +2614,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>603595</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>263891</xdr:rowOff>
+      <xdr:rowOff>256835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9537</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>263891</xdr:rowOff>
+      <xdr:rowOff>256835</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2630,8 +2635,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="603595" y="13039939"/>
-          <a:ext cx="234864" cy="0"/>
+          <a:off x="603595" y="13097946"/>
+          <a:ext cx="231442" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2665,13 +2670,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>605607</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>260360</xdr:rowOff>
+      <xdr:rowOff>246945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>605607</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>7605</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2686,8 +2691,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605607" y="13036408"/>
-          <a:ext cx="0" cy="477305"/>
+          <a:off x="605607" y="13088056"/>
+          <a:ext cx="0" cy="1395992"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3966,6 +3971,337 @@
         <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>824399</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>357306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>824399</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Connettore 1 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE424DD-557F-6344-ACAA-53342D2720E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4126399" y="8795750"/>
+          <a:ext cx="0" cy="383654"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1191</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connettore 1 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52F167E-E5EF-B547-8216-2AF7A46F83DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4128691" y="9173495"/>
+          <a:ext cx="7428309" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>824646</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>352777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>824646</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Connettore 1 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F75FA24-0498-EC49-9164-A31844329140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11556146" y="9158110"/>
+          <a:ext cx="0" cy="7358946"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585611</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Connettore 1 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D95BAB-9131-F647-8955-5BAA943E983E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585611" y="16511899"/>
+          <a:ext cx="10978445" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>589484</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>251748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>820926</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>251748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Connettore 2 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DD458-FDF1-A846-A8F6-36611A5487FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="589484" y="16027970"/>
+          <a:ext cx="231442" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591496</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>248217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591496</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Connettore 1 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC24D54-9387-1D4D-80AE-F462BAAAEB5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="591496" y="16024439"/>
+          <a:ext cx="0" cy="492617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4289,302 +4625,306 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="2:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="K24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="14"/>
+      <c r="M24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="14"/>
+      <c r="O24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="P24" s="26"/>
     </row>
-    <row r="25" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+    <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="2:14" s="9" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>9</v>
       </c>
@@ -4593,257 +4933,254 @@
         <v>15</v>
       </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+    <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="2:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="2:13" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4" t="s">
+      <c r="H44" s="12"/>
+      <c r="I44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
+      <c r="K44" s="12"/>
+      <c r="L44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="H48" s="12"/>
+      <c r="I48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4898,18 +5235,42 @@
     <row r="105" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
+  <mergeCells count="68">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B47:K47"/>
@@ -4918,14 +5279,16 @@
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="D36:E36"/>
@@ -4936,36 +5299,11 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/schema_relazionale.xlsx
+++ b/Relazione/schema_relazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1500" windowWidth="37540" windowHeight="21600" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="860" yWindow="1500" windowWidth="37540" windowHeight="21600" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,20 +414,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,22 +456,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4627,25 +4633,25 @@
   </sheetPr>
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -4657,17 +4663,17 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="11" t="s">
         <v>39</v>
       </c>
@@ -4685,10 +4691,10 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4698,108 +4704,108 @@
       <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -4814,155 +4820,155 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="25" t="s">
+      <c r="L24" s="17"/>
+      <c r="M24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="25" t="s">
+      <c r="N24" s="17"/>
+      <c r="O24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="26"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
@@ -4971,38 +4977,38 @@
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
+      <c r="I32" s="19"/>
+      <c r="J32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -5011,171 +5017,171 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="25" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="26"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="23"/>
+      <c r="E44" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12" t="s">
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="15"/>
+      <c r="M44" s="20"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="15"/>
+      <c r="L48" s="20"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="22"/>
+      <c r="F52" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="15"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5236,6 +5242,58 @@
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B40:C40"/>
@@ -5252,58 +5310,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/schema_relazionale.xlsx
+++ b/Relazione/schema_relazionale.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abertagnon/Documents/Università/Magistrale/ANNO_1/BasiDiDati/progettoBasiDiDati/Relazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E588AF-6D16-2840-A725-8ECCF3A7AD17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1500" windowWidth="37540" windowHeight="21600" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="860" yWindow="440" windowWidth="37540" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>FARMACO</t>
   </si>
@@ -101,12 +102,6 @@
     <t xml:space="preserve">nome </t>
   </si>
   <si>
-    <t>PERMESSI</t>
-  </si>
-  <si>
-    <t>PERMESSI_UTENTE</t>
-  </si>
-  <si>
     <t>idUtente</t>
   </si>
   <si>
@@ -167,10 +162,25 @@
     <t>numeroCivico</t>
   </si>
   <si>
-    <t>idPermesso</t>
+    <t>idSala</t>
   </si>
   <si>
-    <t>idSala</t>
+    <t>RUOLO</t>
+  </si>
+  <si>
+    <t>RUOLO_UTENTE</t>
+  </si>
+  <si>
+    <t>idRuolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ora </t>
+  </si>
+  <si>
+    <t>durata</t>
   </si>
 </sst>
 </file>
@@ -383,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,10 +418,43 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,34 +463,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,15 +482,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,13 +755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>270933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>601133</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>270933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -795,13 +811,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>262466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>499534</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>262466</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -858,7 +874,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>293687</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -873,8 +889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293687" y="611188"/>
-          <a:ext cx="0" cy="5016500"/>
+          <a:off x="293687" y="618596"/>
+          <a:ext cx="0" cy="5062537"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -961,15 +977,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293688</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9072</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -984,7 +1000,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293688" y="5619751"/>
+          <a:off x="302760" y="5667376"/>
           <a:ext cx="531812" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1349,13 +1365,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>589914</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>170525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>820823</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>170525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1466,7 +1482,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>598002</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>171098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2183,7 +2199,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>197725</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2288,13 +2304,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>121488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>121488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2343,13 +2359,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>195129</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7056</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2398,13 +2414,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3234</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>356655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3234</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>7604</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2459,7 +2475,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>99167</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>121982</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2564,13 +2580,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>596287</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>181848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>181848</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2619,13 +2635,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>603595</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>256835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9537</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>256835</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2675,13 +2691,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>605607</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>246945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>605607</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>175381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2730,13 +2746,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>589914</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>117974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>820823</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>117974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2785,13 +2801,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>594591</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>225867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1932</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>225867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2841,13 +2857,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>598002</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>222336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>598002</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>118547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2896,13 +2912,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>506622</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>273773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>506622</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>106467</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2951,13 +2967,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>408064</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>159701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>408064</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>220539</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3006,13 +3022,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>399815</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>165334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>815949</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>165334</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3062,13 +3078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>498593</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>279710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>816253</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>279710</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3118,13 +3134,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>507230</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>99282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>828922</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>99282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3173,13 +3189,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>824856</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>98862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>824856</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7605</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3228,13 +3244,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>817555</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>228144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>817555</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>304</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3283,13 +3299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>403054</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>221264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>221264</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3338,13 +3354,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>59171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>816253</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>59171</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3394,13 +3410,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>408368</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>408368</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3416,8 +3432,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="408368" y="9207500"/>
-          <a:ext cx="0" cy="2266950"/>
+          <a:off x="408368" y="8953500"/>
+          <a:ext cx="0" cy="2787650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3449,14 +3465,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>403358</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8329</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8329</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198829</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3471,7 +3487,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403358" y="9215829"/>
+          <a:off x="403358" y="8961829"/>
           <a:ext cx="2073142" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3510,8 +3526,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>817555</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7604</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3526,8 +3542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2475399" y="8753417"/>
-          <a:ext cx="0" cy="379936"/>
+          <a:off x="2468555" y="8755603"/>
+          <a:ext cx="0" cy="205835"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3621,7 +3637,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>307560</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>247214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3670,13 +3686,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>821659</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>359482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>821659</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3725,13 +3741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>241839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>818444</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>241839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3842,7 +3858,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>505903</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3891,13 +3907,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8109</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>362692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8109</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>12569</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3946,13 +3962,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>504122</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>6559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>6559</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3999,16 +4015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>824399</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>357306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>824399</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7182</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3133</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3133</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4023,8 +4039,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4126399" y="8795750"/>
-          <a:ext cx="0" cy="383654"/>
+          <a:off x="5811266" y="8942505"/>
+          <a:ext cx="0" cy="184562"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4054,16 +4070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1191</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1273</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>821267</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244231</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4078,8 +4094,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4128691" y="9173495"/>
-          <a:ext cx="7428309" cy="0"/>
+          <a:off x="5803575" y="9088610"/>
+          <a:ext cx="5235656" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4110,14 +4126,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>824646</xdr:colOff>
+      <xdr:colOff>235003</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>352777</xdr:rowOff>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>824646</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>235003</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>7056</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4133,8 +4149,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11556146" y="9158110"/>
-          <a:ext cx="0" cy="7358946"/>
+          <a:off x="10966503" y="9112553"/>
+          <a:ext cx="0" cy="8003217"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4166,13 +4182,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>585611</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7056</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244231</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1899</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4188,8 +4204,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="585611" y="16511899"/>
-          <a:ext cx="10978445" cy="0"/>
+          <a:off x="585611" y="17078514"/>
+          <a:ext cx="10453620" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4221,13 +4237,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>589484</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>251748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>820926</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>251748</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4277,13 +4293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>591496</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>248217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>591496</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>7056</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4309,6 +4325,475 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30601</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Figura a mano libera 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFA2A8D-673D-FF4A-BD70-DE56D383B47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="690562" y="9048750"/>
+          <a:ext cx="165539" cy="527051"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 169772 w 169772"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 541867"/>
+            <a:gd name="connsiteX1" fmla="*/ 17372 w 169772"/>
+            <a:gd name="connsiteY1" fmla="*/ 101600 h 541867"/>
+            <a:gd name="connsiteX2" fmla="*/ 76638 w 169772"/>
+            <a:gd name="connsiteY2" fmla="*/ 262467 h 541867"/>
+            <a:gd name="connsiteX3" fmla="*/ 438 w 169772"/>
+            <a:gd name="connsiteY3" fmla="*/ 397934 h 541867"/>
+            <a:gd name="connsiteX4" fmla="*/ 118972 w 169772"/>
+            <a:gd name="connsiteY4" fmla="*/ 541867 h 541867"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="169772" h="541867">
+              <a:moveTo>
+                <a:pt x="169772" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="101333" y="28928"/>
+                <a:pt x="32894" y="57856"/>
+                <a:pt x="17372" y="101600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1850" y="145345"/>
+                <a:pt x="79460" y="213078"/>
+                <a:pt x="76638" y="262467"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73816" y="311856"/>
+                <a:pt x="-6618" y="351367"/>
+                <a:pt x="438" y="397934"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7494" y="444501"/>
+                <a:pt x="92161" y="503767"/>
+                <a:pt x="118972" y="541867"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>796441</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>294182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Figura a mano libera 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F18AD38-BAE3-0F4A-B680-B7D3DE531089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9876941" y="8396782"/>
+          <a:ext cx="165539" cy="533399"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 169772 w 169772"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 541867"/>
+            <a:gd name="connsiteX1" fmla="*/ 17372 w 169772"/>
+            <a:gd name="connsiteY1" fmla="*/ 101600 h 541867"/>
+            <a:gd name="connsiteX2" fmla="*/ 76638 w 169772"/>
+            <a:gd name="connsiteY2" fmla="*/ 262467 h 541867"/>
+            <a:gd name="connsiteX3" fmla="*/ 438 w 169772"/>
+            <a:gd name="connsiteY3" fmla="*/ 397934 h 541867"/>
+            <a:gd name="connsiteX4" fmla="*/ 118972 w 169772"/>
+            <a:gd name="connsiteY4" fmla="*/ 541867 h 541867"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="169772" h="541867">
+              <a:moveTo>
+                <a:pt x="169772" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="101333" y="28928"/>
+                <a:pt x="32894" y="57856"/>
+                <a:pt x="17372" y="101600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1850" y="145345"/>
+                <a:pt x="79460" y="213078"/>
+                <a:pt x="76638" y="262467"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73816" y="311856"/>
+                <a:pt x="-6618" y="351367"/>
+                <a:pt x="438" y="397934"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7494" y="444501"/>
+                <a:pt x="92161" y="503767"/>
+                <a:pt x="118972" y="541867"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293202</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293202</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Connettore 1 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59324139-1D42-9A4B-B118-E6E3CE90CC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="293202" y="5765800"/>
+          <a:ext cx="0" cy="2065867"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Connettore 1 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D43F6AF-060E-8441-B57A-1DEB9F001EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="287867" y="7824458"/>
+          <a:ext cx="3869266" cy="5232"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>852</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>361117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>852</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>364067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Connettore 1 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11320945-AC66-944E-9E76-CE43E3828789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4149519" y="7811784"/>
+          <a:ext cx="0" cy="748016"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1932</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Connettore 2 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C004C6D-F4C1-924F-ADD8-F289DA0F174E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="287867" y="5778405"/>
+          <a:ext cx="543798" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4631,27 +5116,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -4661,27 +5146,27 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="H2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>19</v>
@@ -4691,121 +5176,121 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -4820,384 +5305,409 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+    <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+    <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="41" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+    </row>
+    <row r="49" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="12" t="s">
+      <c r="F49" s="31"/>
+      <c r="G49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="12" t="s">
+      <c r="J49" s="17"/>
+      <c r="K49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="L49" s="18"/>
     </row>
-    <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+    <row r="50" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
-    <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+    <row r="53" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="G53" s="17"/>
+      <c r="H53" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="I53" s="18"/>
     </row>
-    <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+    <row r="54" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
-    <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-    </row>
-    <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5240,67 +5750,67 @@
     <row r="104" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="105" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="69">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B23:K23"/>
-    <mergeCell ref="K24:L24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E24:F24"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -5310,6 +5820,8 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
